--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2400.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2400.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.078835795590848</v>
+        <v>1.150997519493103</v>
       </c>
       <c r="B1">
-        <v>2.371267749536822</v>
+        <v>2.39935564994812</v>
       </c>
       <c r="C1">
-        <v>7.134335608906098</v>
+        <v>5.141182899475098</v>
       </c>
       <c r="D1">
-        <v>1.758187658346488</v>
+        <v>2.212102174758911</v>
       </c>
       <c r="E1">
-        <v>0.9847840267493925</v>
+        <v>1.245173573493958</v>
       </c>
     </row>
   </sheetData>
